--- a/output/fit_clients/fit_round_96.xlsx
+++ b/output/fit_clients/fit_round_96.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>6752187410.1795</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004281868451916344</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>20</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.695118348021762</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9350724269877954</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.695118348021762</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4332060658.164338</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005704340306666131</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>21</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.8955112229647233</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.294081033968188</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.054220468758185</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.294081033968188</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>6377229347.587022</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002943690376584363</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.448087984867374</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9245917945056501</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.448087984867374</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>5133955465.638271</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003305642047639174</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>23</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.345496125614575</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8257210675505631</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.345496125614575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7389543336.465283</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002242369341878617</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>28</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.8605965244347041</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.11911049033804</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.9894572028698652</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.11911049033804</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>5588802371.408379</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001022966672787578</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.459902788822626</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9191240606264357</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.459902788822626</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>5530002160.648581</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002307684903464347</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.187881037970616</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9581447826456141</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.187881037970616</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5884125751.641125</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004295812570027994</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.7667134278133</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8978551349482882</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.7667134278133</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4172691051.103259</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005519715398007778</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>22</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650116</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.241523929729441</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.918393250592992</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.241523929729441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3628333863.05725</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001382373861198163</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>21</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.264869108271084</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7835408575539456</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.264869108271084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6073412455.261221</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001595244584904071</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>17</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.650086253153956</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9705162828278292</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.650086253153956</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5416967458.976478</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.00376642723512052</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>22</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.15166192554077</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.238975466705199</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.01337032217705</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.238975466705199</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>9090923700.971464</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003384738402805844</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>17</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.548686819178533</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8800898387841393</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.548686819178533</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6330038914.973189</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003499609956967631</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>14</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.060494165727107</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9854621584337964</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.060494165727107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5473360129.927508</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004128016703621393</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.780171851410381</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9097529830276054</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.780171851410381</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5800610566.6984</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003013379035620277</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>16</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.550128920887633</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9260440670075918</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.550128920887633</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6961628415.808259</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.000969432211141857</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>16</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.583085390447674</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9139909896828909</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.583085390447674</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3191037564.040628</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002130158347614839</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>20</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.378608384842232</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8965454869662743</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.378608384842232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4848954381.813956</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001187402296199408</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>16</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.568088652608903</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8074071352713299</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-2.568088652608903</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7214730298.634957</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.003805272963106936</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
         <v>18</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.656748583680162</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8648768359904347</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.656748583680162</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>6198800507.526762</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.003597631004302892</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>21</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.423537467565446</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7937668371051873</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.423537467565446</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6622894736.951821</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001625919784020803</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>24</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.11706004174404</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8578558618186255</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.11706004174404</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>8112569584.869079</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003335229147685783</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>18</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818316</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.597879755271986</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9713816581246428</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-2.597879755271986</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5451234531.740928</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.002957515862514904</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>14</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.860231428250918</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9307490586616749</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-2.860231428250918</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5664620334.266147</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001059483940877624</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>22</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.102261871413851</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8111453174810032</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.102261871413851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>5952738415.816717</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003262539016682252</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>19</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971373</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.453423960796891</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9222265927565534</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.453423960796891</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>8501894403.780141</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004214402546553763</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>15</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.2101110636836699</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.737973296491259</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9097529830276054</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.737973296491259</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7281038872.860557</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.00105122689687774</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>18</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.288533662962607</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.596145608252761</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9598980367323031</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-2.596145608252761</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>7416357077.896853</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003678940362795465</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>24</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090876</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.051903666478609</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8507758473786596</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.051903666478609</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7284872535.85668</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003323414181537816</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>21</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.393034119657274</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9488072452122615</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.393034119657274</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3316630475.533437</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.0009449782435894391</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>22</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.557706921123503</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9006592753486534</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.557706921123503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>6243499749.067039</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002930788398982182</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>15</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.7453609720289298</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278147</v>
-      </c>
-      <c r="L33" t="n">
-        <v>2.805251201835404</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8808070787243684</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-2.805251201835404</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>5378929875.112444</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.0043752004171486</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>18</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.638018759786921</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7446191957327047</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.638018759786921</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6684546394.623648</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002259217579135857</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>17</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.551741539326944</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9214972256617185</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.551741539326944</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>6571140788.576724</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003798499687865478</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>18</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380638</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.487524855328218</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.000017816117084</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.487524855328218</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6239026314.037963</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.00503663512864072</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>23</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5823785081038074</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.398090189465255</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.8866442362822926</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.398090189465255</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3346276656.891037</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003183574499208581</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>17</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.47599958844235</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9049388343794257</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.47599958844235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5068378786.797566</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002014381102764464</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>16</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2.825396324246878</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8535347000486609</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-2.825396324246878</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5447147128.382132</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003744325924531955</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>20</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.562809984571672</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9626948485712111</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.562809984571672</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6036808450.818999</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001426561716219346</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>14</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.820880534196037</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9242276088853296</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-2.820880534196037</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6257983780.293276</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004612944491751377</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>18</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.388702850522555</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9693038464192125</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.388702850522555</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6111615918.378439</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004479764398034898</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>19</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.549018660454784</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.130755616085273</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.549018660454784</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5558301334.829129</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002064772159108672</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>23</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.6037868436306807</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.344896521349977</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.8418070455617402</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.344896521349977</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5515026853.410392</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001443374568749615</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>17</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.84063121858311</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.948452357857787</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-2.84063121858311</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>11246484298.88705</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003738636103630877</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>22</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.8503978406391024</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.295744050791584</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9161032877837008</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.295744050791584</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>7225155489.440801</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.003095233093157841</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>20</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.289657176653047</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8760721423938174</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.289657176653047</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5958488082.319767</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.00227416670135637</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>13</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>2.946691610416342</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9406249172662081</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-2.946691610416342</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4901963664.296173</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.003651265955830437</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>22</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.402739183790747</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8582471192497004</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.402739183790747</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7519942160.546659</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003731229905146525</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>13</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5796938293115024</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2.971553135055499</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.9032211223149993</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-2.971553135055499</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>3700168449.128625</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005376018995287675</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>21</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656325</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.387511159590494</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9402689361750073</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.387511159590494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>5856547557.006166</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001406667629067665</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>19</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.361999586442327</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8350278343786856</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.361999586442327</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5383063796.58817</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.00288959205900722</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>20</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.387550480799446</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.8987915160133044</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.387550480799446</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6706016463.417841</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.003843469797466184</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>22</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.19064122778504</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8307922475171264</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.19064122778504</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7507631814.159482</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.00355722703003433</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>20</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.363586960405578</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8954203597588363</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.363586960405578</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4134774963.180033</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.00267535731817155</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>19</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.465080883255801</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.8922246191995098</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.465080883255801</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6523164619.117922</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003119675666953776</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
         <v>21</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.277232086576468</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8000917068266132</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.277232086576468</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6356293162.625107</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002011284830675072</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>19</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.03519841500184499</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.281262950101599</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8301847541790667</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.281262950101599</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6040249335.184969</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.002866216896061599</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>20</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.8069471208915322</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.334826981633041</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.9636716906827489</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.334826981633041</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5534572387.636605</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.002693186001141115</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>23</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.8793809061650002</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677436</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.102814711276701</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.9398465356024195</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.102814711276701</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5371331815.158223</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004259474015526358</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>27</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.739326257810882</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9086462740767608</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.739326257810882</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4975932837.060959</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.00288045370852448</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>19</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.010646456510441</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8600066652620251</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.010646456510441</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7928115668.184827</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004279324105094131</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>28</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>1.995724644105889</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-0.5400617248673217</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-1.995724644105889</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4925747541.140654</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.005024688013655091</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>17</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.8786618529545756</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.51727841224437</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.018698474763138</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.51727841224437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>4912296703.754623</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.003923604178198423</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>25</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.591971007147615</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.9618226324827074</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.591971007147615</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5210359780.439925</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002584605260008745</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>19</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.465669535869988</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8899620171938858</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.465669535869988</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6967905917.398237</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005820946819389222</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>16</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>2.718978131987119</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8675919308837297</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-2.718978131987119</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8901341111.926935</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002367818345265998</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>23</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.091496826246693</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7059334488904648</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.091496826246693</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5129784928.741842</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0009040887333117595</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>13</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.4477601130067485</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2.971541311143006</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.7543782666707085</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-2.971541311143006</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6541775586.439095</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002417146256228579</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>16</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.795935811470102</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.447592082292622</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9566063019203614</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.447592082292622</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3889665112.406929</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002729121009609041</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.66427472313086</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.7963016359071614</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.66427472313086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6571280139.884945</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001564771926632742</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>18</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.487827444852372</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.040528425002669</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.487827444852372</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6757847024.216106</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.0008894149545891225</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>15</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.692549076496086</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9477431738825021</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.692549076496086</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6026635764.658631</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004234393761768336</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>20</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.308654049648784</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8515646884239282</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.308654049648784</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7741334068.642922</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003794811249946899</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>18</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.574028405966513</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8660416450504995</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.574028405966513</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>7295889733.236683</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.003011125540467433</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
         <v>20</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.461726576220516</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9165616300722472</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.461726576220516</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>8007159609.652514</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005462629283685953</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>14</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>2.839503570357268</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9720726319718327</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-2.839503570357268</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7297964917.402179</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003209068183093168</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>21</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.35640250527175</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.897482189631988</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.35640250527175</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>8734607243.963034</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001821476510132476</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>17</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.480975374537447</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9302078548011971</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.480975374537447</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6489434055.664993</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003084158427094363</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>21</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330154</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.616964014757877</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9562157263243115</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.616964014757877</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7105042538.678043</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004466285527336286</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>11</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.061389346668729</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9715534825038945</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.061389346668729</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7208916122.555624</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.003997975296733125</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>21</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.398850543483772</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8793265879315983</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.398850543483772</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9603159635.849106</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002493340454042913</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>25</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.8280266693434842</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.071495970380896</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.9247908192179509</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.071495970380896</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>4849010202.062475</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004913859342812779</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>23</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6159640347408879</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.197994660162685</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.8677998692503638</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.197994660162685</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4622723540.22046</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002958858050257884</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>24</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.122357629256077</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8878837803503778</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.122357629256077</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>9194335850.885366</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002505498016749117</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>22</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.534248672395179</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9633930262103129</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.534248672395179</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>5167960705.942243</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001227777361574991</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>29</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6148003176871503</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>1.986414235839634</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.8681420954112623</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-1.986414235839634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6209798421.613684</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003513595285470445</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>17</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.491214145097662</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8426387478657095</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.491214145097662</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>6626383231.32003</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.00372186989413948</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>15</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.2875063972817091</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758226</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.816695250583412</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.5347742138365573</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.816695250583412</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>7206528578.397278</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002269791554698846</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>16</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.560345573567957</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9411611272493472</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.560345573567957</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>8114732434.423441</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003734068534410907</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>14</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.66716780419137</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8053231283609009</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.66716780419137</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4171169369.890245</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003744502060053678</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>15</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.784774524120662</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.039073713095651</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-2.784774524120662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7161593505.163091</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.00119114711777171</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>20</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.389779686037676</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9099385059150945</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.389779686037676</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>7076450952.177218</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001532075527977907</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>16</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.683648744494943</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.9922588142031366</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.683648744494943</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7311002425.706279</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002378691621767994</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>16</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.564905480189214</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9084594551089005</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.564905480189214</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>6492046053.454938</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002074573976225201</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
         <v>25</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5011478947831599</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693104</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.192221124803408</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.7236527753873745</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.192221124803408</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>8204616628.915677</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004628431865705264</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>19</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.9630372826612873</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244965</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.57049760272425</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.071309773681956</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.57049760272425</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>5844131028.662978</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.00455288569020798</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>17</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.374513102051284</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8556974606852245</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.374513102051284</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3017981601.120851</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005770289509776563</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>23</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.273370587749807</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8777970270345211</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.273370587749807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4095638506.790855</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.00322068948284339</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>16</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.562707094894621</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8222533407864367</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.562707094894621</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5662585943.963049</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001318886196403375</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>22</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6868447071049544</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480225</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.555309540112452</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8664302882535097</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.555309540112452</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_96.xlsx
+++ b/output/fit_clients/fit_round_96.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>6752187410.1795</v>
+        <v>2404751109.52232</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004281868451916344</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>24</v>
+        <v>0.0856425339499762</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03449190833910547</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1202375604.745055</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>537</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2477366283.543451</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1117739453891074</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03430817106172446</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>542</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4332060658.164338</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.005704340306666131</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>23</v>
+      <c r="J3" t="n">
+        <v>1238683255.680119</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>6377229347.587022</v>
+        <v>5023822887.049571</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002943690376584363</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21</v>
+        <v>0.1103039589976669</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03801325766415244</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>35</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2511911530.165627</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>5133955465.638271</v>
+        <v>3502552282.679763</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003305642047639174</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.08666682761482118</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04023788973649699</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>37</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1751276177.907848</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>7389543336.465283</v>
+        <v>2295484551.138178</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002242369341878617</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>20</v>
+        <v>0.1386604370384962</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05146355709367622</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1147742273.114184</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>5588802371.408379</v>
+        <v>2595471972.115192</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001022966672787578</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>29</v>
+        <v>0.06827729657019424</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04309084217869674</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1297735989.85493</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>5530002160.648581</v>
+        <v>3629609628.353386</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002307684903464347</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
+        <v>0.1847618565071496</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02319539127317668</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>31</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1814804935.982856</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5884125751.641125</v>
+        <v>1622720354.241952</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004295812570027994</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>30</v>
+        <v>0.1347537442438744</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02984912403825006</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>811360256.0097784</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4172691051.103259</v>
+        <v>5703208828.070447</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005519715398007778</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1980057600034044</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05057509904906513</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>41</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2851604567.72226</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3628333863.05725</v>
+        <v>2991021460.142795</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001382373861198163</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1486701777705131</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04016129391500903</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>40</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1495510672.283341</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>6073412455.261221</v>
+        <v>2403131186.671965</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001595244584904071</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>27</v>
+        <v>0.1958772708802301</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04537621918844534</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>34</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1201565556.622949</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>510</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3403268332.051538</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.08013494748908581</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02766534096121118</v>
+      </c>
+      <c r="H13" t="b">
         <v>1</v>
       </c>
-      <c r="D13" t="n">
-        <v>480</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5416967458.976478</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.00376642723512052</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>20</v>
+      <c r="I13" t="n">
+        <v>32</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1701634251.188682</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>9090923700.971464</v>
+        <v>3433734026.976598</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003384738402805844</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>22</v>
+        <v>0.1696436213420993</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.02867768901165933</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>31</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1716867016.464528</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6330038914.973189</v>
+        <v>1636936954.683359</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003499609956967631</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>28</v>
+        <v>0.07427756448557857</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04669372875285473</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>818468593.8083957</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5473360129.927508</v>
+        <v>2599469341.463212</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004128016703621393</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>31</v>
+        <v>0.1123073919737149</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03726464723172557</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>15</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1299734692.592237</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5800610566.6984</v>
+        <v>5307933455.577901</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003013379035620277</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>20</v>
+        <v>0.1387871153055289</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03905141182735029</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>28</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2653966697.691404</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6961628415.808259</v>
+        <v>2764191087.33608</v>
       </c>
       <c r="F18" t="n">
-        <v>0.000969432211141857</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>27</v>
+        <v>0.1706563805315567</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0255713543090649</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>31</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1382095590.971087</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3191037564.040628</v>
+        <v>1013540770.193866</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002130158347614839</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1787869140094362</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01668475076861473</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>506770417.5689807</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4848954381.813956</v>
+        <v>1849885299.341148</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001187402296199408</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
+        <v>0.1344878286634115</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0251275831256239</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12</v>
+      </c>
+      <c r="J20" t="n">
+        <v>924942691.9270437</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>7214730298.634957</v>
+        <v>2161263526.384057</v>
       </c>
       <c r="F21" t="n">
-        <v>0.003805272963106936</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>18</v>
+        <v>0.07236867948340849</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04231418847585116</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1080631783.664394</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>6198800507.526762</v>
+        <v>3853499586.731837</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003597631004302892</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
+        <v>0.1177040376332977</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05363441236805604</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>27</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1926749803.711908</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6622894736.951821</v>
+        <v>989386871.8891767</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001625919784020803</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>18</v>
+        <v>0.1134237123216125</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04930453564049504</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>494693507.8409288</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>8112569584.869079</v>
+        <v>3891369473.122707</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003335229147685783</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>24</v>
+        <v>0.09797573693947992</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03405829155159932</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>28</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1945684711.790921</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5451234531.740928</v>
+        <v>945643939.1761875</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002957515862514904</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>22</v>
+        <v>0.1049313924218912</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0213609040696665</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>472822046.0046533</v>
       </c>
     </row>
     <row r="26">
@@ -1155,19 +1309,25 @@
         <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5664620334.266147</v>
+        <v>1438201958.159667</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001059483940877624</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1140302442843064</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03207591143631849</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>719101058.3607783</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>5952738415.816717</v>
+        <v>3510806318.897483</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003262539016682252</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>27</v>
+        <v>0.1404130053541325</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02282732826620999</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>22</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1755403193.826339</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>8501894403.780141</v>
+        <v>2570868628.907012</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004214402546553763</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>24</v>
+        <v>0.1390282450687455</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03748287823620243</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>31</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1285434288.340656</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7281038872.860557</v>
+        <v>4548330991.486332</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00105122689687774</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>25</v>
+        <v>0.1058244634678562</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04488765119072313</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>45</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2274165474.494626</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>7416357077.896853</v>
+        <v>2170334781.434379</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003678940362795465</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>31</v>
+        <v>0.1032691557691207</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03746772293385845</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1085167447.48947</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7284872535.85668</v>
+        <v>1392867030.0592</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003323414181537816</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>20</v>
+        <v>0.1103898194394355</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03702541255346867</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>696433421.0328473</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3316630475.533437</v>
+        <v>1246415625.333603</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0009449782435894391</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.08283504645377018</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02801360581015251</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>623207828.4199812</v>
       </c>
     </row>
     <row r="33">
@@ -1351,19 +1547,25 @@
         <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>6243499749.067039</v>
+        <v>3044661922.133599</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002930788398982182</v>
-      </c>
-      <c r="G33" t="b">
+        <v>0.1350457966160446</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05251875790864687</v>
+      </c>
+      <c r="H33" t="b">
         <v>1</v>
       </c>
-      <c r="H33" t="n">
-        <v>20</v>
+      <c r="I33" t="n">
+        <v>27</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1522330952.811104</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>5378929875.112444</v>
+        <v>1448321607.767689</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0043752004171486</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>30</v>
+        <v>0.09667969563739141</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02005293147582996</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>724160768.1304955</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6684546394.623648</v>
+        <v>1346946910.855853</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002259217579135857</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>24</v>
+        <v>0.08039922614736358</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04007894454640839</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>673473397.850499</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>6571140788.576724</v>
+        <v>2049118243.390722</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003798499687865478</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>27</v>
+        <v>0.1635051566891755</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0256448248682992</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>24</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1024559179.727332</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6239026314.037963</v>
+        <v>2608027132.040493</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00503663512864072</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.07060690969878268</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03867246619577767</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>24</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1304013676.863931</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3346276656.891037</v>
+        <v>2182576555.608171</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003183574499208581</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.09364121706245984</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03341649674031508</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1091288230.574607</v>
       </c>
     </row>
     <row r="39">
@@ -1519,19 +1751,25 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5068378786.797566</v>
+        <v>2001576201.555816</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002014381102764464</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>13</v>
+        <v>0.1532606397256943</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02917932973430112</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1000788095.017961</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5447147128.382132</v>
+        <v>1742069039.831962</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003744325924531955</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>26</v>
+        <v>0.1415805808079341</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.03946741812835449</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>871034425.4413211</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6036808450.818999</v>
+        <v>1941906736.678838</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001426561716219346</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>27</v>
+        <v>0.1153681494859969</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.031076461944889</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>24</v>
+      </c>
+      <c r="J41" t="n">
+        <v>970953448.1590998</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6257983780.293276</v>
+        <v>3515598052.102688</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004612944491751377</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>23</v>
+        <v>0.1018845848947649</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04590393168972787</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>32</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1757799021.912678</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6111615918.378439</v>
+        <v>2933088147.534217</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004479764398034898</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>23</v>
+        <v>0.1821856276406975</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02579793011611612</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>31</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1466544078.818344</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5558301334.829129</v>
+        <v>2292109843.983577</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002064772159108672</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>25</v>
+        <v>0.0849022775213443</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03578928737846235</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1146055086.546386</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5515026853.410392</v>
+        <v>1628849253.344479</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001443374568749615</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
+        <v>0.1851475157802419</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04260998741704845</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>814424580.0603119</v>
       </c>
     </row>
     <row r="46">
@@ -1715,19 +1989,25 @@
         <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>11246484298.88705</v>
+        <v>4699245104.577688</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003738636103630877</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>15</v>
+        <v>0.1730079799609344</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.06065974604531405</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>34</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2349622561.795985</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>7225155489.440801</v>
+        <v>4412362680.389388</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003095233093157841</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>13</v>
+        <v>0.160926190052131</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05194336576847491</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>26</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2206181362.606581</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>502</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4697861766.325049</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.08767741471122054</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03536947541576082</v>
+      </c>
+      <c r="H48" t="b">
         <v>1</v>
       </c>
-      <c r="D48" t="n">
-        <v>431</v>
-      </c>
-      <c r="E48" t="n">
-        <v>5958488082.319767</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.00227416670135637</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>17</v>
+      <c r="I48" t="n">
+        <v>31</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2348930876.927892</v>
       </c>
     </row>
     <row r="49">
@@ -1799,19 +2091,25 @@
         <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4901963664.296173</v>
+        <v>1311037764.119418</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003651265955830437</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1271716255480956</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.04301183289902191</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>655518943.4075418</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7519942160.546659</v>
+        <v>3929894687.431619</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003731229905146525</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>27</v>
+        <v>0.1096725216248534</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04105357592962553</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>33</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1964947337.303936</v>
       </c>
     </row>
     <row r="51">
@@ -1855,19 +2159,25 @@
         <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>3700168449.128625</v>
+        <v>1350328584.157879</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005376018995287675</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1818606491887848</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04216010636677386</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>675164319.1976568</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5856547557.006166</v>
+        <v>4264674098.330908</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001406667629067665</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>23</v>
+        <v>0.1310939118502278</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04060722085199234</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>40</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2132337089.99805</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5383063796.58817</v>
+        <v>3532918439.865515</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00288959205900722</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>18</v>
+        <v>0.1763131993497054</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02538503748475534</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>28</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1766459215.461864</v>
       </c>
     </row>
     <row r="54">
@@ -1939,19 +2261,25 @@
         <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6706016463.417841</v>
+        <v>3693455281.307051</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003843469797466184</v>
-      </c>
-      <c r="G54" t="b">
+        <v>0.1431477238694868</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03556864471063202</v>
+      </c>
+      <c r="H54" t="b">
         <v>1</v>
       </c>
-      <c r="H54" t="n">
-        <v>23</v>
+      <c r="I54" t="n">
+        <v>32</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1846727680.585328</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7507631814.159482</v>
+        <v>4162033787.04992</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00355722703003433</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>30</v>
+        <v>0.1830517367523895</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02230423117954126</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>27</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2081016875.50414</v>
       </c>
     </row>
     <row r="56">
@@ -1995,19 +2329,25 @@
         <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4134774963.180033</v>
+        <v>1396341667.794449</v>
       </c>
       <c r="F56" t="n">
-        <v>0.00267535731817155</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>13</v>
+        <v>0.128784341958025</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.03914138291273429</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>698170891.4399599</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6523164619.117922</v>
+        <v>3930900676.0339</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003119675666953776</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>21</v>
+        <v>0.1360004870171953</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02272738598314763</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>31</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1965450420.503402</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6356293162.625107</v>
+        <v>1830807729.041778</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002011284830675072</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>23</v>
+        <v>0.1851428348530622</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02665490691913167</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>915403865.3960708</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6040249335.184969</v>
+        <v>3862680351.486727</v>
       </c>
       <c r="F59" t="n">
-        <v>0.002866216896061599</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>11</v>
+        <v>0.08828625056193065</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0437506399310533</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>26</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1931340158.226425</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5534572387.636605</v>
+        <v>3079924655.621923</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002693186001141115</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
+        <v>0.1621417249285957</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.03326865475792853</v>
+      </c>
+      <c r="H60" t="b">
         <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>29</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1539962406.469932</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5371331815.158223</v>
+        <v>2395431846.318694</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004259474015526358</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>21</v>
+        <v>0.1161065512604864</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02013552116585722</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>33</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1197715960.562861</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4975932837.060959</v>
+        <v>1959303888.76582</v>
       </c>
       <c r="F62" t="n">
-        <v>0.00288045370852448</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>17</v>
+        <v>0.1856968395894959</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03654682924535819</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>979651996.2921822</v>
       </c>
     </row>
     <row r="63">
@@ -2191,19 +2567,25 @@
         <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7928115668.184827</v>
+        <v>4347286587.304258</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004279324105094131</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>23</v>
+        <v>0.07010964350180357</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04175984660021868</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>27</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2173643340.463847</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4925747541.140654</v>
+        <v>5089882177.70558</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005024688013655091</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1536121243035338</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03512569103740783</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>30</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2544941201.302661</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4912296703.754623</v>
+        <v>5259508289.690344</v>
       </c>
       <c r="F65" t="n">
-        <v>0.003923604178198423</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>26</v>
+        <v>0.1445069493185152</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02640853965174743</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>35</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2629754088.187179</v>
       </c>
     </row>
     <row r="66">
@@ -2275,19 +2669,25 @@
         <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5210359780.439925</v>
+        <v>4720005424.053595</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002584605260008745</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>20</v>
+        <v>0.1460662895881274</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04040586420196073</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>28</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2360002724.115947</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6967905917.398237</v>
+        <v>2630493837.448395</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005820946819389222</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>19</v>
+        <v>0.08034428656774885</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04126171908053339</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>31</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1315246968.216095</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8901341111.926935</v>
+        <v>4918632390.597017</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002367818345265998</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>20</v>
+        <v>0.131091395143499</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04227236543739474</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>31</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2459316246.681017</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5129784928.741842</v>
+        <v>1541932522.812474</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0009040887333117595</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>21</v>
+        <v>0.1588236285242276</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05760895758448871</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>770966207.0642105</v>
       </c>
     </row>
     <row r="70">
@@ -2387,19 +2805,25 @@
         <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6541775586.439095</v>
+        <v>2597002973.580964</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002417146256228579</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>23</v>
+        <v>0.09855238716531498</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04533620902190146</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>27</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1298501437.461825</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3889665112.406929</v>
+        <v>5423811334.450219</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002729121009609041</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1440077172745502</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02536403099265568</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>35</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2711905804.511135</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6571280139.884945</v>
+        <v>2263892600.985498</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001564771926632742</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>21</v>
+        <v>0.0962486957084053</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04388729479648323</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1131946204.209492</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6757847024.216106</v>
+        <v>3377584738.568637</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0008894149545891225</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>23</v>
+        <v>0.10802319751738</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03762294970032257</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>38</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1688792330.637595</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6026635764.658631</v>
+        <v>3097722508.089922</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004234393761768336</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>22</v>
+        <v>0.1379051698873501</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03313916194335866</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>33</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1548861310.944539</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7741334068.642922</v>
+        <v>2263935523.230756</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003794811249946899</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>19</v>
+        <v>0.1302476624066058</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03615419075080073</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1131967700.976838</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>7295889733.236683</v>
+        <v>4350205154.976175</v>
       </c>
       <c r="F76" t="n">
-        <v>0.003011125540467433</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>20</v>
+        <v>0.1002772405153162</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02163734512602312</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>21</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2175102576.842851</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>8007159609.652514</v>
+        <v>2197063206.526692</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005462629283685953</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>31</v>
+        <v>0.1805617184570046</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02785166705208197</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1098531693.799643</v>
       </c>
     </row>
     <row r="78">
@@ -2611,19 +3077,25 @@
         <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7297964917.402179</v>
+        <v>3221898029.956904</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003209068183093168</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>19</v>
+        <v>0.08773199399944551</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04024536042898424</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>35</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1610949036.348013</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>8734607243.963034</v>
+        <v>1493891552.648884</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001821476510132476</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>21</v>
+        <v>0.124392913105832</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02482865022195487</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>746945809.3633986</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6489434055.664993</v>
+        <v>3569446323.963844</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003084158427094363</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>32</v>
+        <v>0.1061632780857149</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03100688367024623</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>20</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1784723139.985786</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
+        <v>3</v>
+      </c>
+      <c r="D81" t="n">
+        <v>414</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3430315778.596006</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.1153763799692678</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0308129725625923</v>
+      </c>
+      <c r="H81" t="b">
         <v>1</v>
       </c>
-      <c r="D81" t="n">
-        <v>427</v>
-      </c>
-      <c r="E81" t="n">
-        <v>7105042538.678043</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.004466285527336286</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>17</v>
+      <c r="I81" t="n">
+        <v>23</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1715157831.266908</v>
       </c>
     </row>
     <row r="82">
@@ -2723,19 +3213,25 @@
         <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>7208916122.555624</v>
+        <v>4712869423.513773</v>
       </c>
       <c r="F82" t="n">
-        <v>0.003997975296733125</v>
-      </c>
-      <c r="G82" t="b">
+        <v>0.2135777491557866</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02010456006059213</v>
+      </c>
+      <c r="H82" t="b">
         <v>1</v>
       </c>
-      <c r="H82" t="n">
-        <v>17</v>
+      <c r="I82" t="n">
+        <v>35</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2356434711.615498</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9603159635.849106</v>
+        <v>1660071207.835706</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002493340454042913</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>30</v>
+        <v>0.1347414606752818</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03183216179034676</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>830035546.8656094</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>4849010202.062475</v>
+        <v>1825620797.582058</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004913859342812779</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>25</v>
+        <v>0.0891938022655477</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0478052693566862</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>912810429.242888</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4622723540.22046</v>
+        <v>2472908757.174106</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002958858050257884</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
+        <v>0.1309685566379844</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04985783537373779</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>36</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1236454380.474092</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>9194335850.885366</v>
+        <v>1698996349.19153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002505498016749117</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>32</v>
+        <v>0.1412187296852862</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02250880451390355</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>9</v>
+      </c>
+      <c r="J86" t="n">
+        <v>849498160.2692292</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>5167960705.942243</v>
+        <v>1032014744.347504</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001227777361574991</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1226848402128435</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.02991041814047802</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>516007384.6122556</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>6209798421.613684</v>
+        <v>3203335844.26423</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003513595285470445</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>22</v>
+        <v>0.1774085543752864</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02707461182626947</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>38</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1601667972.596498</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>6626383231.32003</v>
+        <v>3373800954.239723</v>
       </c>
       <c r="F89" t="n">
-        <v>0.00372186989413948</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>21</v>
+        <v>0.1029024621276164</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03728530800853688</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>33</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1686900487.749471</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>7206528578.397278</v>
+        <v>2133809581.805951</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002269791554698846</v>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>17</v>
+        <v>0.09363967503043723</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04984640600227466</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1066904885.557929</v>
       </c>
     </row>
     <row r="91">
@@ -2975,19 +3519,25 @@
         <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>8114732434.423441</v>
+        <v>1981384395.987833</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003734068534410907</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>29</v>
+        <v>0.1742813235977219</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.03879002431709359</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>990692172.6864082</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4171169369.890245</v>
+        <v>2266814969.407411</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003744502060053678</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.1035406044925626</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04674478203222193</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>18</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1133407450.971524</v>
       </c>
     </row>
     <row r="93">
@@ -3031,19 +3587,25 @@
         <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7161593505.163091</v>
+        <v>4710051857.527641</v>
       </c>
       <c r="F93" t="n">
-        <v>0.00119114711777171</v>
-      </c>
-      <c r="G93" t="b">
+        <v>0.1243377336637685</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03821853610926851</v>
+      </c>
+      <c r="H93" t="b">
         <v>1</v>
       </c>
-      <c r="H93" t="n">
-        <v>33</v>
+      <c r="I93" t="n">
+        <v>28</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2355025883.418408</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>7076450952.177218</v>
+        <v>2146793690.940464</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001532075527977907</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>31</v>
+        <v>0.1334335008244258</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0417140667590279</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1073396862.869694</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7311002425.706279</v>
+        <v>2947231153.231337</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002378691621767994</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
-        <v>24</v>
+        <v>0.136450161333674</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04129317836547532</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>23</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1473615580.118217</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>6492046053.454938</v>
+        <v>2195719845.093422</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002074573976225201</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>25</v>
+        <v>0.09399811754576463</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04189064830657229</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1097859888.555159</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>8204616628.915677</v>
+        <v>3605284120.364704</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004628431865705264</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>25</v>
+        <v>0.1553169070400459</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.01999468135150766</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>31</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1802642084.762537</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>5844131028.662978</v>
+        <v>2750899392.899384</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00455288569020798</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>36</v>
+        <v>0.09948910796421345</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02765802156272659</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>25</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1375449664.18787</v>
       </c>
     </row>
     <row r="99">
@@ -3199,19 +3791,25 @@
         <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3017981601.120851</v>
+        <v>3017424364.328374</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005770289509776563</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1141306375634549</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02828586725270489</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>31</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1508712169.302855</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4095638506.790855</v>
+        <v>3524305998.887225</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00322068948284339</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.1325646264737293</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02157076359227179</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>29</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1762153032.076039</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>5662585943.963049</v>
+        <v>2664227481.800624</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001318886196403375</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>31</v>
+        <v>0.2103752547320894</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.03844715469008664</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>41</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1332113785.501554</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_96.xlsx
+++ b/output/fit_clients/fit_round_96.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2404751109.52232</v>
+        <v>1688318547.924351</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0856425339499762</v>
+        <v>0.07704342407717436</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03449190833910547</v>
+        <v>0.02978983664462349</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1202375604.745055</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2477366283.543451</v>
+        <v>1655528171.239961</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1117739453891074</v>
+        <v>0.1142940248672479</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03430817106172446</v>
+        <v>0.03859293585364607</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1238683255.680119</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5023822887.049571</v>
+        <v>5178745774.376024</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1103039589976669</v>
+        <v>0.1062716993483109</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03801325766415244</v>
+        <v>0.03672637663000367</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>35</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2511911530.165627</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3502552282.679763</v>
+        <v>3541111815.783384</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08666682761482118</v>
+        <v>0.0836439146699523</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04023788973649699</v>
+        <v>0.04399108272751326</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>37</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1751276177.907848</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2295484551.138178</v>
+        <v>2622989044.562193</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1386604370384962</v>
+        <v>0.107988106955381</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05146355709367622</v>
+        <v>0.05236490816346719</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>16</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1147742273.114184</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2595471972.115192</v>
+        <v>3046251556.923189</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06827729657019424</v>
+        <v>0.06761155537757856</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04309084217869674</v>
+        <v>0.04931810443015522</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1297735989.85493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3629609628.353386</v>
+        <v>3278523824.214298</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1847618565071496</v>
+        <v>0.1449937303091538</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02319539127317668</v>
+        <v>0.02220116175373428</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>31</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1814804935.982856</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1622720354.241952</v>
+        <v>1535837487.493938</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1347537442438744</v>
+        <v>0.1427285343774893</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02984912403825006</v>
+        <v>0.03679098723666233</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>811360256.0097784</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5703208828.070447</v>
+        <v>4236911695.522015</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1980057600034044</v>
+        <v>0.1641872476239925</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05057509904906513</v>
+        <v>0.03861719764692325</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>41</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2851604567.72226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2991021460.142795</v>
+        <v>4262200219.1953</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1486701777705131</v>
+        <v>0.1701878722556268</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04016129391500903</v>
+        <v>0.04937090508506976</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>40</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1495510672.283341</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2403131186.671965</v>
+        <v>2773090555.249782</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1958772708802301</v>
+        <v>0.1646988746053425</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04537621918844534</v>
+        <v>0.05194738639887527</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>34</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1201565556.622949</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3403268332.051538</v>
+        <v>5268400472.296267</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08013494748908581</v>
+        <v>0.07441260160656266</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02766534096121118</v>
+        <v>0.02714094753408099</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>32</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1701634251.188682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3433734026.976598</v>
+        <v>2803939829.75377</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1696436213420993</v>
+        <v>0.1313619324541328</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02867768901165933</v>
+        <v>0.04242061277184752</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>31</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1716867016.464528</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1636936954.683359</v>
+        <v>1260683227.529152</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07427756448557857</v>
+        <v>0.08239900128434034</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04669372875285473</v>
+        <v>0.03313415340872371</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>818468593.8083957</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2599469341.463212</v>
+        <v>2022438707.33485</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1123073919737149</v>
+        <v>0.087474191677463</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03726464723172557</v>
+        <v>0.03798833307072175</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1299734692.592237</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5307933455.577901</v>
+        <v>5293900073.459604</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1387871153055289</v>
+        <v>0.1124822290061898</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03905141182735029</v>
+        <v>0.04680687381990524</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>28</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2653966697.691404</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2764191087.33608</v>
+        <v>3161069198.024295</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1706563805315567</v>
+        <v>0.1232270126841728</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0255713543090649</v>
+        <v>0.02588450645786166</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>31</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1382095590.971087</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1013540770.193866</v>
+        <v>1172100852.293701</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1787869140094362</v>
+        <v>0.1415756829953972</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01668475076861473</v>
+        <v>0.02467390314099624</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>506770417.5689807</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1849885299.341148</v>
+        <v>1708999478.597687</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1344878286634115</v>
+        <v>0.1451187448090435</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0251275831256239</v>
+        <v>0.03048268042244686</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12</v>
-      </c>
-      <c r="J20" t="n">
-        <v>924942691.9270437</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2161263526.384057</v>
+        <v>2253630854.263659</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07236867948340849</v>
+        <v>0.08561212475991066</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04231418847585116</v>
+        <v>0.03328602563357502</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1080631783.664394</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3853499586.731837</v>
+        <v>3964958127.054204</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1177040376332977</v>
+        <v>0.1233724366525966</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05363441236805604</v>
+        <v>0.05433927638159797</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>27</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1926749803.711908</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>989386871.8891767</v>
+        <v>1455506401.81516</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1134237123216125</v>
+        <v>0.1522235493895272</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04930453564049504</v>
+        <v>0.03708138489987934</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>494693507.8409288</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3891369473.122707</v>
+        <v>3477436820.246174</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09797573693947992</v>
+        <v>0.112544549376806</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03405829155159932</v>
+        <v>0.03451585003099277</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>28</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1945684711.790921</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>945643939.1761875</v>
+        <v>1172205075.007348</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1049313924218912</v>
+        <v>0.08672849051312227</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0213609040696665</v>
+        <v>0.02123991339429695</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>472822046.0046533</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1438201958.159667</v>
+        <v>922561105.5112282</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1140302442843064</v>
+        <v>0.1055331065972111</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03207591143631849</v>
+        <v>0.02744647347820326</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>719101058.3607783</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3510806318.897483</v>
+        <v>3517662171.151936</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1404130053541325</v>
+        <v>0.1257678612657644</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02282732826620999</v>
+        <v>0.01880468360833912</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>22</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1755403193.826339</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2570868628.907012</v>
+        <v>3327677801.61318</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1390282450687455</v>
+        <v>0.1177307359378888</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03748287823620243</v>
+        <v>0.03713898643248512</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>31</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1285434288.340656</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4548330991.486332</v>
+        <v>5256816022.066641</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1058244634678562</v>
+        <v>0.1130345969514561</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04488765119072313</v>
+        <v>0.03754001079850882</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>45</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2274165474.494626</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2170334781.434379</v>
+        <v>2312553478.123386</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1032691557691207</v>
+        <v>0.09224206755777405</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03746772293385845</v>
+        <v>0.03381417148895705</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1085167447.48947</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1392867030.0592</v>
+        <v>1159964377.636821</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1103898194394355</v>
+        <v>0.07757272590193434</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03702541255346867</v>
+        <v>0.05180354459612419</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>696433421.0328473</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1246415625.333603</v>
+        <v>1792800994.007924</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08283504645377018</v>
+        <v>0.1143550683534636</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02801360581015251</v>
+        <v>0.02758527453994463</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>623207828.4199812</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3044661922.133599</v>
+        <v>1881986178.068039</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1350457966160446</v>
+        <v>0.1724160582478249</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05251875790864687</v>
+        <v>0.05668538125161318</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>27</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1522330952.811104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1448321607.767689</v>
+        <v>1551370694.817756</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09667969563739141</v>
+        <v>0.1092664381534572</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02005293147582996</v>
+        <v>0.02732432248474084</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>724160768.1304955</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1346946910.855853</v>
+        <v>893137629.9682343</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08039922614736358</v>
+        <v>0.0874724593275138</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04007894454640839</v>
+        <v>0.02921291272721179</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>673473397.850499</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2049118243.390722</v>
+        <v>3188824232.555974</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1635051566891755</v>
+        <v>0.1315761221651712</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0256448248682992</v>
+        <v>0.01783212209307238</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>24</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1024559179.727332</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2608027132.040493</v>
+        <v>2149132180.97277</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07060690969878268</v>
+        <v>0.07866838726914037</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03867246619577767</v>
+        <v>0.04267661154676088</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>24</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1304013676.863931</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2182576555.608171</v>
+        <v>1763975494.583969</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09364121706245984</v>
+        <v>0.1166580571194736</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03341649674031508</v>
+        <v>0.03711806917357133</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1091288230.574607</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2001576201.555816</v>
+        <v>1928759698.486811</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1532606397256943</v>
+        <v>0.1453945695050189</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02917932973430112</v>
+        <v>0.03087741653148574</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1000788095.017961</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1742069039.831962</v>
+        <v>1190964437.305219</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1415805808079341</v>
+        <v>0.1005629725849916</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03946741812835449</v>
+        <v>0.04290131635593371</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>871034425.4413211</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1941906736.678838</v>
+        <v>2920760218.865546</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1153681494859969</v>
+        <v>0.1151084178406199</v>
       </c>
       <c r="G41" t="n">
-        <v>0.031076461944889</v>
+        <v>0.04657502365202475</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>24</v>
-      </c>
-      <c r="J41" t="n">
-        <v>970953448.1590998</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3515598052.102688</v>
+        <v>3828118921.026683</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1018845848947649</v>
+        <v>0.09990692049466865</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04590393168972787</v>
+        <v>0.03750764727662922</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>32</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1757799021.912678</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2933088147.534217</v>
+        <v>2653839027.295521</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1821856276406975</v>
+        <v>0.2049351371614093</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02579793011611612</v>
+        <v>0.01571123321324069</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>31</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1466544078.818344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2292109843.983577</v>
+        <v>1806523022.129186</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0849022775213443</v>
+        <v>0.08343712616149265</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03578928737846235</v>
+        <v>0.02498474441545471</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1146055086.546386</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1628849253.344479</v>
+        <v>2068541862.70667</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1851475157802419</v>
+        <v>0.1786640460215134</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04260998741704845</v>
+        <v>0.04916315470497459</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>814424580.0603119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4699245104.577688</v>
+        <v>4044184525.839745</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1730079799609344</v>
+        <v>0.109735843639393</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06065974604531405</v>
+        <v>0.05108289113163694</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>34</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2349622561.795985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4412362680.389388</v>
+        <v>4736494739.003759</v>
       </c>
       <c r="F47" t="n">
-        <v>0.160926190052131</v>
+        <v>0.1979389946617286</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05194336576847491</v>
+        <v>0.03637222904698124</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>26</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2206181362.606581</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4697861766.325049</v>
+        <v>3967286179.547026</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08767741471122054</v>
+        <v>0.09984527053197478</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03536947541576082</v>
+        <v>0.03827152443702151</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>31</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2348930876.927892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1311037764.119418</v>
+        <v>1359153966.793525</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1271716255480956</v>
+        <v>0.1538958736933711</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04301183289902191</v>
+        <v>0.02705735346842571</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>655518943.4075418</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3929894687.431619</v>
+        <v>4029409689.733446</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1096725216248534</v>
+        <v>0.1690527469082869</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04105357592962553</v>
+        <v>0.03946816968260906</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>33</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1964947337.303936</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1350328584.157879</v>
+        <v>1038631601.115081</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1818606491887848</v>
+        <v>0.1402295065997257</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04216010636677386</v>
+        <v>0.03496754725851179</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>675164319.1976568</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4264674098.330908</v>
+        <v>4501163249.554635</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1310939118502278</v>
+        <v>0.1290517236571079</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04060722085199234</v>
+        <v>0.0543325537144816</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>40</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2132337089.99805</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3532918439.865515</v>
+        <v>2602433643.488116</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1763131993497054</v>
+        <v>0.1691157842031748</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02538503748475534</v>
+        <v>0.0252166128547195</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>28</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1766459215.461864</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3693455281.307051</v>
+        <v>4474219645.585949</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1431477238694868</v>
+        <v>0.1659923726660815</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03556864471063202</v>
+        <v>0.04450866359542528</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>32</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1846727680.585328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4162033787.04992</v>
+        <v>3694923406.369585</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1830517367523895</v>
+        <v>0.2173062386178372</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02230423117954126</v>
+        <v>0.01997701075641329</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>27</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2081016875.50414</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1396341667.794449</v>
+        <v>1863324009.52703</v>
       </c>
       <c r="F56" t="n">
-        <v>0.128784341958025</v>
+        <v>0.1352063164572081</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03914138291273429</v>
+        <v>0.04307241983705669</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>698170891.4399599</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3930900676.0339</v>
+        <v>3677603301.328746</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1360004870171953</v>
+        <v>0.170802352242728</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02272738598314763</v>
+        <v>0.02342613587264557</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>31</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1965450420.503402</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1830807729.041778</v>
+        <v>1766777451.243669</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1851428348530622</v>
+        <v>0.1806231745387642</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02665490691913167</v>
+        <v>0.03496980575211159</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>915403865.3960708</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3862680351.486727</v>
+        <v>3614486125.567928</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08828625056193065</v>
+        <v>0.1039982687166639</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0437506399310533</v>
+        <v>0.03755913369676527</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>26</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1931340158.226425</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3079924655.621923</v>
+        <v>3728540528.74819</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1621417249285957</v>
+        <v>0.1558393558980336</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03326865475792853</v>
+        <v>0.02291464651296241</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>29</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1539962406.469932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2395431846.318694</v>
+        <v>2384341401.925038</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1161065512604864</v>
+        <v>0.1546638535349539</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02013552116585722</v>
+        <v>0.02542940563426293</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>33</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1197715960.562861</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1959303888.76582</v>
+        <v>1576117345.64197</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1856968395894959</v>
+        <v>0.1512152306866673</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03654682924535819</v>
+        <v>0.04826027903649649</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>979651996.2921822</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4347286587.304258</v>
+        <v>4969513302.586695</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07010964350180357</v>
+        <v>0.08799999813433682</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04175984660021868</v>
+        <v>0.04289520420702916</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>27</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2173643340.463847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5089882177.70558</v>
+        <v>5242930137.16682</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1536121243035338</v>
+        <v>0.1219320230443582</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03512569103740783</v>
+        <v>0.02207066329942771</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>30</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2544941201.302661</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5259508289.690344</v>
+        <v>4752163769.268279</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1445069493185152</v>
+        <v>0.1297142087152761</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02640853965174743</v>
+        <v>0.03214428369802859</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>35</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2629754088.187179</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4720005424.053595</v>
+        <v>4943894311.493723</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1460662895881274</v>
+        <v>0.1196884344117632</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04040586420196073</v>
+        <v>0.03150575248488077</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>28</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2360002724.115947</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2630493837.448395</v>
+        <v>2493835236.86949</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08034428656774885</v>
+        <v>0.0820477346483944</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04126171908053339</v>
+        <v>0.03313574758544211</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>31</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1315246968.216095</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4918632390.597017</v>
+        <v>5030625401.896029</v>
       </c>
       <c r="F68" t="n">
-        <v>0.131091395143499</v>
+        <v>0.1469117223129799</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04227236543739474</v>
+        <v>0.03220705947830069</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>31</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2459316246.681017</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1541932522.812474</v>
+        <v>2115274036.430031</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1588236285242276</v>
+        <v>0.1697103280035855</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05760895758448871</v>
+        <v>0.04227325628560931</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>770966207.0642105</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2597002973.580964</v>
+        <v>3035774722.520724</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09855238716531498</v>
+        <v>0.08643007845561924</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04533620902190146</v>
+        <v>0.03443317101791114</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>27</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1298501437.461825</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5423811334.450219</v>
+        <v>4555298442.094</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1440077172745502</v>
+        <v>0.1830348802698602</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02536403099265568</v>
+        <v>0.02560402702280597</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>35</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2711905804.511135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2263892600.985498</v>
+        <v>2021341174.256798</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0962486957084053</v>
+        <v>0.1001289422370274</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04388729479648323</v>
+        <v>0.04954040001710952</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1131946204.209492</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3377584738.568637</v>
+        <v>2441330294.603001</v>
       </c>
       <c r="F73" t="n">
-        <v>0.10802319751738</v>
+        <v>0.0897402388674616</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03762294970032257</v>
+        <v>0.04120790160540744</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>38</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1688792330.637595</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3097722508.089922</v>
+        <v>3867856926.212888</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1379051698873501</v>
+        <v>0.1161670549950949</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03313916194335866</v>
+        <v>0.03004676077898134</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>33</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1548861310.944539</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2263935523.230756</v>
+        <v>1728609882.125534</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1302476624066058</v>
+        <v>0.1655981411224736</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03615419075080073</v>
+        <v>0.03520854160947167</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1131967700.976838</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4350205154.976175</v>
+        <v>5136938417.622222</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1002772405153162</v>
+        <v>0.07612878941697369</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02163734512602312</v>
+        <v>0.02729837732202837</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>21</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2175102576.842851</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2197063206.526692</v>
+        <v>2242619748.896532</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1805617184570046</v>
+        <v>0.1780962858776837</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02785166705208197</v>
+        <v>0.02116334863905589</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1098531693.799643</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3221898029.956904</v>
+        <v>4483398870.162744</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08773199399944551</v>
+        <v>0.1238645170289784</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04024536042898424</v>
+        <v>0.04596055737299753</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>35</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1610949036.348013</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1493891552.648884</v>
+        <v>1500510023.069719</v>
       </c>
       <c r="F79" t="n">
-        <v>0.124392913105832</v>
+        <v>0.1241993654519351</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02482865022195487</v>
+        <v>0.0261694246977692</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>746945809.3633986</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3569446323.963844</v>
+        <v>4432182199.102153</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1061632780857149</v>
+        <v>0.06792407590094714</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03100688367024623</v>
+        <v>0.03404487847395419</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>20</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1784723139.985786</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3430315778.596006</v>
+        <v>4489511515.661948</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1153763799692678</v>
+        <v>0.1118112900429733</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0308129725625923</v>
+        <v>0.02065309910437969</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>23</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1715157831.266908</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4712869423.513773</v>
+        <v>5456979101.007542</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2135777491557866</v>
+        <v>0.1393354066898363</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02010456006059213</v>
+        <v>0.01875486878529869</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>35</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2356434711.615498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1660071207.835706</v>
+        <v>1998542741.578614</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1347414606752818</v>
+        <v>0.1354116840019934</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03183216179034676</v>
+        <v>0.03330834846079116</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>830035546.8656094</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1825620797.582058</v>
+        <v>1574877696.283113</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0891938022655477</v>
+        <v>0.08415523762731945</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0478052693566862</v>
+        <v>0.04544412345708023</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>912810429.242888</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2472908757.174106</v>
+        <v>3201704310.862498</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1309685566379844</v>
+        <v>0.1851237971825436</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04985783537373779</v>
+        <v>0.04105898521989058</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>36</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1236454380.474092</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1698996349.19153</v>
+        <v>2054632120.609605</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1412187296852862</v>
+        <v>0.1540898475757717</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02250880451390355</v>
+        <v>0.0248275659562746</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>9</v>
-      </c>
-      <c r="J86" t="n">
-        <v>849498160.2692292</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1032014744.347504</v>
+        <v>1414311754.084653</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1226848402128435</v>
+        <v>0.159227095702735</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02991041814047802</v>
+        <v>0.02801509243515752</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>516007384.6122556</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3203335844.26423</v>
+        <v>2928859310.960374</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1774085543752864</v>
+        <v>0.1257733289319795</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02707461182626947</v>
+        <v>0.03450328214881897</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>38</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1601667972.596498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3373800954.239723</v>
+        <v>2677282152.59568</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1029024621276164</v>
+        <v>0.1183362364567662</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03728530800853688</v>
+        <v>0.03233448566649788</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>33</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1686900487.749471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2133809581.805951</v>
+        <v>1789395377.710836</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09363967503043723</v>
+        <v>0.1113639669183018</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04984640600227466</v>
+        <v>0.04668798703495588</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1066904885.557929</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1981384395.987833</v>
+        <v>1853362315.889851</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1742813235977219</v>
+        <v>0.1220622441963117</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03879002431709359</v>
+        <v>0.05713843486261035</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>990692172.6864082</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2266814969.407411</v>
+        <v>2148026728.901349</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1035406044925626</v>
+        <v>0.09245004087793533</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04674478203222193</v>
+        <v>0.03185835658595849</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>18</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1133407450.971524</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4710051857.527641</v>
+        <v>3455201583.15646</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1243377336637685</v>
+        <v>0.1392678762734417</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03821853610926851</v>
+        <v>0.04068810174756723</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>28</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2355025883.418408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2146793690.940464</v>
+        <v>1616068446.599851</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1334335008244258</v>
+        <v>0.1091443333577441</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0417140667590279</v>
+        <v>0.03135008398845897</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1073396862.869694</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2947231153.231337</v>
+        <v>2110819328.176955</v>
       </c>
       <c r="F95" t="n">
-        <v>0.136450161333674</v>
+        <v>0.1350907627570826</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04129317836547532</v>
+        <v>0.04997540713832312</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>23</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1473615580.118217</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2195719845.093422</v>
+        <v>1708881041.409573</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09399811754576463</v>
+        <v>0.1245789194293876</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04189064830657229</v>
+        <v>0.038779090917192</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1097859888.555159</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3605284120.364704</v>
+        <v>4757095290.886631</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1553169070400459</v>
+        <v>0.1409550382435724</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01999468135150766</v>
+        <v>0.02138910186507209</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>31</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1802642084.762537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2750899392.899384</v>
+        <v>3699089524.543768</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09948910796421345</v>
+        <v>0.1053320501133983</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02765802156272659</v>
+        <v>0.03001934791940607</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>25</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1375449664.18787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3017424364.328374</v>
+        <v>3203770300.672113</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1141306375634549</v>
+        <v>0.1131202682531166</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02828586725270489</v>
+        <v>0.02199981406758532</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>31</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1508712169.302855</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3524305998.887225</v>
+        <v>4765194577.877742</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1325646264737293</v>
+        <v>0.1559875790724974</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02157076359227179</v>
+        <v>0.02117283510798878</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>29</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1762153032.076039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2664227481.800624</v>
+        <v>3565707211.741813</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2103752547320894</v>
+        <v>0.2064644498868729</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03844715469008664</v>
+        <v>0.0402451338438636</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>41</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1332113785.501554</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_96.xlsx
+++ b/output/fit_clients/fit_round_96.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1688318547.924351</v>
+        <v>1927591151.892506</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07704342407717436</v>
+        <v>0.07138443166844009</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02978983664462349</v>
+        <v>0.04281412444479447</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1655528171.239961</v>
+        <v>1876757967.231266</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1142940248672479</v>
+        <v>0.1516262818823426</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03859293585364607</v>
+        <v>0.04567862577289054</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5178745774.376024</v>
+        <v>5015618196.51462</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1062716993483109</v>
+        <v>0.1336502230226878</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03672637663000367</v>
+        <v>0.03307786913175521</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3541111815.783384</v>
+        <v>3096575969.295888</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0836439146699523</v>
+        <v>0.08308153207736819</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04399108272751326</v>
+        <v>0.03203846138126128</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2622989044.562193</v>
+        <v>2208935334.530295</v>
       </c>
       <c r="F6" t="n">
-        <v>0.107988106955381</v>
+        <v>0.1213464137935483</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05236490816346719</v>
+        <v>0.05343184976293891</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3046251556.923189</v>
+        <v>2510257943.542904</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06761155537757856</v>
+        <v>0.09284202512423444</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04931810443015522</v>
+        <v>0.04749421422182985</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3278523824.214298</v>
+        <v>3021230769.411296</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1449937303091538</v>
+        <v>0.1603519357184002</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02220116175373428</v>
+        <v>0.02382594711896541</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1535837487.493938</v>
+        <v>2030795629.800604</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1427285343774893</v>
+        <v>0.1747021291255689</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03679098723666233</v>
+        <v>0.02942033076946196</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4236911695.522015</v>
+        <v>5654774414.588772</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1641872476239925</v>
+        <v>0.1843864711720707</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03861719764692325</v>
+        <v>0.04920025981128855</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4262200219.1953</v>
+        <v>3267453107.995995</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1701878722556268</v>
+        <v>0.1562642565379777</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04937090508506976</v>
+        <v>0.0461761607695091</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2773090555.249782</v>
+        <v>2609049462.120966</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1646988746053425</v>
+        <v>0.1868312872586036</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05194738639887527</v>
+        <v>0.05144918083389426</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5268400472.296267</v>
+        <v>4641173668.496677</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07441260160656266</v>
+        <v>0.07343307005886703</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02714094753408099</v>
+        <v>0.02397725357060046</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2803939829.75377</v>
+        <v>2762384749.509008</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1313619324541328</v>
+        <v>0.1512979313920024</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04242061277184752</v>
+        <v>0.03483917487987614</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1260683227.529152</v>
+        <v>1224194468.602226</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08239900128434034</v>
+        <v>0.09340216342353123</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03313415340872371</v>
+        <v>0.04381992224647556</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2022438707.33485</v>
+        <v>2686251038.901777</v>
       </c>
       <c r="F16" t="n">
-        <v>0.087474191677463</v>
+        <v>0.07272861625305009</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03798833307072175</v>
+        <v>0.04028900257110894</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5293900073.459604</v>
+        <v>3995667879.182867</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1124822290061898</v>
+        <v>0.1648302757234328</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04680687381990524</v>
+        <v>0.04651199168276153</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3161069198.024295</v>
+        <v>2930104815.393851</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1232270126841728</v>
+        <v>0.1624543415424489</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02588450645786166</v>
+        <v>0.02711000229533181</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1172100852.293701</v>
+        <v>990209840.7723832</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1415756829953972</v>
+        <v>0.1742427351762011</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02467390314099624</v>
+        <v>0.01872077259196939</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1708999478.597687</v>
+        <v>2424594701.719015</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1451187448090435</v>
+        <v>0.1350827487706255</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03048268042244686</v>
+        <v>0.02591967442932318</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2253630854.263659</v>
+        <v>1863678368.5223</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08561212475991066</v>
+        <v>0.1022617531332203</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03328602563357502</v>
+        <v>0.03184064556592979</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3964958127.054204</v>
+        <v>3655706954.891215</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1233724366525966</v>
+        <v>0.1272665078467352</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05433927638159797</v>
+        <v>0.0387232799895167</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1455506401.81516</v>
+        <v>1134450931.958875</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1522235493895272</v>
+        <v>0.1857673509203535</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03708138489987934</v>
+        <v>0.03580024123935222</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3477436820.246174</v>
+        <v>3556127889.294889</v>
       </c>
       <c r="F24" t="n">
-        <v>0.112544549376806</v>
+        <v>0.09497245113324784</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03451585003099277</v>
+        <v>0.02753421630670521</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1172205075.007348</v>
+        <v>1282056793.675869</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08672849051312227</v>
+        <v>0.1057941138948916</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02123991339429695</v>
+        <v>0.01991141364187696</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>922561105.5112282</v>
+        <v>1208761663.014628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1055331065972111</v>
+        <v>0.08879267791354636</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02744647347820326</v>
+        <v>0.03807161935250995</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3517662171.151936</v>
+        <v>3999605127.56191</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1257678612657644</v>
+        <v>0.1505854027566846</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01880468360833912</v>
+        <v>0.01962339510197523</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3327677801.61318</v>
+        <v>3273134788.94433</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1177307359378888</v>
+        <v>0.1291905785466298</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03713898643248512</v>
+        <v>0.03886733513342534</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5256816022.066641</v>
+        <v>4297123143.38571</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1130345969514561</v>
+        <v>0.1191298615799396</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03754001079850882</v>
+        <v>0.02877181948512684</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2312553478.123386</v>
+        <v>2101981392.354641</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09224206755777405</v>
+        <v>0.09711192763668031</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03381417148895705</v>
+        <v>0.02774980746583041</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1159964377.636821</v>
+        <v>1058591182.182718</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07757272590193434</v>
+        <v>0.06907250307236096</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05180354459612419</v>
+        <v>0.04771795192763324</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1792800994.007924</v>
+        <v>1213039068.070081</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1143550683534636</v>
+        <v>0.09839784266074054</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02758527453994463</v>
+        <v>0.02556480589133161</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1881986178.068039</v>
+        <v>2134989485.505761</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1724160582478249</v>
+        <v>0.1289577128785033</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05668538125161318</v>
+        <v>0.05202483105055232</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1551370694.817756</v>
+        <v>1476311322.039423</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1092664381534572</v>
+        <v>0.08189274498187908</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02732432248474084</v>
+        <v>0.02426501116603459</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>893137629.9682343</v>
+        <v>1075292886.079651</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0874724593275138</v>
+        <v>0.07517490635852896</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02921291272721179</v>
+        <v>0.03820667691536831</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3188824232.555974</v>
+        <v>2013446005.182292</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1315761221651712</v>
+        <v>0.1510166469887562</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01783212209307238</v>
+        <v>0.02056598355013643</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2149132180.97277</v>
+        <v>2230734630.16012</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07866838726914037</v>
+        <v>0.06949084237635562</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04267661154676088</v>
+        <v>0.03598713223382361</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1763975494.583969</v>
+        <v>1372645619.653373</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1166580571194736</v>
+        <v>0.09510915367559067</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03711806917357133</v>
+        <v>0.02772044648878845</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1928759698.486811</v>
+        <v>1573236523.253922</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1453945695050189</v>
+        <v>0.1748492303379831</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03087741653148574</v>
+        <v>0.02409166587382134</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1190964437.305219</v>
+        <v>1472261889.894761</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1005629725849916</v>
+        <v>0.1512055522327122</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04290131635593371</v>
+        <v>0.04379913531120539</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2920760218.865546</v>
+        <v>2101192546.304189</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1151084178406199</v>
+        <v>0.123511382609949</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04657502365202475</v>
+        <v>0.03785396637121019</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3828118921.026683</v>
+        <v>3955733547.353693</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09990692049466865</v>
+        <v>0.1162714763348741</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03750764727662922</v>
+        <v>0.02934591403728553</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2653839027.295521</v>
+        <v>3031675679.235347</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2049351371614093</v>
+        <v>0.1636618859769913</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01571123321324069</v>
+        <v>0.01998337012998572</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1806523022.129186</v>
+        <v>1932082720.10497</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08343712616149265</v>
+        <v>0.06591053326211428</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02498474441545471</v>
+        <v>0.0232650123512343</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2068541862.70667</v>
+        <v>2524064459.964147</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1786640460215134</v>
+        <v>0.1802973049873534</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04916315470497459</v>
+        <v>0.03508091027703802</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4044184525.839745</v>
+        <v>3992582704.106526</v>
       </c>
       <c r="F46" t="n">
-        <v>0.109735843639393</v>
+        <v>0.1678084008089755</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05108289113163694</v>
+        <v>0.05049513261762122</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4736494739.003759</v>
+        <v>4046732356.613318</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1979389946617286</v>
+        <v>0.1780907370744021</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03637222904698124</v>
+        <v>0.03749426912107984</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3967286179.547026</v>
+        <v>3146748235.188259</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09984527053197478</v>
+        <v>0.08602313843240898</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03827152443702151</v>
+        <v>0.03200515836960934</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1359153966.793525</v>
+        <v>1636390597.253203</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1538958736933711</v>
+        <v>0.1349424297159196</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02705735346842571</v>
+        <v>0.03997714055520388</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4029409689.733446</v>
+        <v>3109665792.724521</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1690527469082869</v>
+        <v>0.1540242606064165</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03946816968260906</v>
+        <v>0.04293574413790779</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1038631601.115081</v>
+        <v>1060782787.721203</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1402295065997257</v>
+        <v>0.1901003742118977</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03496754725851179</v>
+        <v>0.03830887294487406</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4501163249.554635</v>
+        <v>3829050982.676727</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1290517236571079</v>
+        <v>0.1116555865103405</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0543325537144816</v>
+        <v>0.06134800702603187</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2602433643.488116</v>
+        <v>3260481865.599161</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1691157842031748</v>
+        <v>0.1794756201631069</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0252166128547195</v>
+        <v>0.03346299923994448</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4474219645.585949</v>
+        <v>4567634947.700305</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1659923726660815</v>
+        <v>0.1033179840804354</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04450866359542528</v>
+        <v>0.0423257521256353</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3694923406.369585</v>
+        <v>3002914377.61272</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2173062386178372</v>
+        <v>0.1557889608715189</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01997701075641329</v>
+        <v>0.02336150855891454</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1863324009.52703</v>
+        <v>1819315064.824373</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1352063164572081</v>
+        <v>0.1451975202616104</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04307241983705669</v>
+        <v>0.0491990895624295</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3677603301.328746</v>
+        <v>3483312938.027881</v>
       </c>
       <c r="F57" t="n">
-        <v>0.170802352242728</v>
+        <v>0.152585633782005</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02342613587264557</v>
+        <v>0.0184985886743323</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1766777451.243669</v>
+        <v>1219817194.561337</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1806231745387642</v>
+        <v>0.1779398300596772</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03496980575211159</v>
+        <v>0.0318064135729531</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3614486125.567928</v>
+        <v>3476950952.704811</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1039982687166639</v>
+        <v>0.1003004935475038</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03755913369676527</v>
+        <v>0.0417504111210606</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3728540528.74819</v>
+        <v>3181706694.474176</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1558393558980336</v>
+        <v>0.126439178638864</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02291464651296241</v>
+        <v>0.03002026904321368</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2384341401.925038</v>
+        <v>2981202059.725483</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1546638535349539</v>
+        <v>0.1508643686283402</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02542940563426293</v>
+        <v>0.02374928949542485</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1576117345.64197</v>
+        <v>1816389769.570147</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1512152306866673</v>
+        <v>0.1731171247793346</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04826027903649649</v>
+        <v>0.03447151182870141</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4969513302.586695</v>
+        <v>4887153559.270959</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08799999813433682</v>
+        <v>0.1034816913503809</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04289520420702916</v>
+        <v>0.04188216141420411</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5242930137.16682</v>
+        <v>4544533808.55327</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1219320230443582</v>
+        <v>0.1872926057607583</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02207066329942771</v>
+        <v>0.029971859265949</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4752163769.268279</v>
+        <v>5313318857.061946</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1297142087152761</v>
+        <v>0.1190818882118333</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03214428369802859</v>
+        <v>0.02655595815982697</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4943894311.493723</v>
+        <v>4669064344.755369</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1196884344117632</v>
+        <v>0.1494103967942813</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03150575248488077</v>
+        <v>0.04489648208112797</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2493835236.86949</v>
+        <v>2904840131.631886</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0820477346483944</v>
+        <v>0.07218775212314901</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03313574758544211</v>
+        <v>0.04567828000326467</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5030625401.896029</v>
+        <v>4086387056.143058</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1469117223129799</v>
+        <v>0.1539413589569317</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03220705947830069</v>
+        <v>0.0364294100358977</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2115274036.430031</v>
+        <v>2431969689.148753</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1697103280035855</v>
+        <v>0.1526198546802101</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04227325628560931</v>
+        <v>0.04211079458903754</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3035774722.520724</v>
+        <v>3413139707.560425</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08643007845561924</v>
+        <v>0.07621796743899734</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03443317101791114</v>
+        <v>0.03272721942687819</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4555298442.094</v>
+        <v>4799411756.248652</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1830348802698602</v>
+        <v>0.1820101810648944</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02560402702280597</v>
+        <v>0.02592556190698691</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2021341174.256798</v>
+        <v>1466093215.760275</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1001289422370274</v>
+        <v>0.1015604095520006</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04954040001710952</v>
+        <v>0.04771810748517695</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2441330294.603001</v>
+        <v>3360924554.375633</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0897402388674616</v>
+        <v>0.09649057743700938</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04120790160540744</v>
+        <v>0.03613235642426973</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3867856926.212888</v>
+        <v>3478359214.192907</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1161670549950949</v>
+        <v>0.1816287135374217</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03004676077898134</v>
+        <v>0.02473691581344897</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1728609882.125534</v>
+        <v>2295903382.25002</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1655981411224736</v>
+        <v>0.1166567051859142</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03520854160947167</v>
+        <v>0.02691231128341194</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5136938417.622222</v>
+        <v>4881363892.044548</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07612878941697369</v>
+        <v>0.09273364062520291</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02729837732202837</v>
+        <v>0.03191670510755576</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2242619748.896532</v>
+        <v>1950233572.444791</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1780962858776837</v>
+        <v>0.1484920328558345</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02116334863905589</v>
+        <v>0.0311727964088507</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4483398870.162744</v>
+        <v>4092151631.106519</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1238645170289784</v>
+        <v>0.09391107101135791</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04596055737299753</v>
+        <v>0.04162912006350761</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1500510023.069719</v>
+        <v>1491327834.362491</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1241993654519351</v>
+        <v>0.1075390757152005</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0261694246977692</v>
+        <v>0.03497524117751848</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4432182199.102153</v>
+        <v>5581321020.667466</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06792407590094714</v>
+        <v>0.1110644783951965</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03404487847395419</v>
+        <v>0.02494195195635215</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4489511515.661948</v>
+        <v>4493263196.95927</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1118112900429733</v>
+        <v>0.08698584353273937</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02065309910437969</v>
+        <v>0.02152677981722302</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5456979101.007542</v>
+        <v>3947690777.86855</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1393354066898363</v>
+        <v>0.2134659307750121</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01875486878529869</v>
+        <v>0.02216410958204895</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1998542741.578614</v>
+        <v>2018337212.760308</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1354116840019934</v>
+        <v>0.1514023493004873</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03330834846079116</v>
+        <v>0.02873563158936492</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1574877696.283113</v>
+        <v>2366089370.683004</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08415523762731945</v>
+        <v>0.09407667913377406</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04544412345708023</v>
+        <v>0.04274527452563757</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3201704310.862498</v>
+        <v>2748467807.882572</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1851237971825436</v>
+        <v>0.1281895691083584</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04105898521989058</v>
+        <v>0.04274508299026226</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2054632120.609605</v>
+        <v>2094674108.223531</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1540898475757717</v>
+        <v>0.1332376643934073</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0248275659562746</v>
+        <v>0.02365907795512191</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1414311754.084653</v>
+        <v>1500169816.776975</v>
       </c>
       <c r="F87" t="n">
-        <v>0.159227095702735</v>
+        <v>0.1429071499646055</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02801509243515752</v>
+        <v>0.03195388306506435</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2928859310.960374</v>
+        <v>2361924261.483837</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1257733289319795</v>
+        <v>0.1121695597894672</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03450328214881897</v>
+        <v>0.03677929701988873</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2677282152.59568</v>
+        <v>2133679962.445297</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1183362364567662</v>
+        <v>0.1522387645023711</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03233448566649788</v>
+        <v>0.02968567383619526</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1789395377.710836</v>
+        <v>1723973746.836035</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1113639669183018</v>
+        <v>0.1113299935087535</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04668798703495588</v>
+        <v>0.03956005122764152</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1853362315.889851</v>
+        <v>1545874328.649153</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1220622441963117</v>
+        <v>0.1701095895260407</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05713843486261035</v>
+        <v>0.05322047748874083</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2148026728.901349</v>
+        <v>2360655375.734796</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09245004087793533</v>
+        <v>0.1096403311453632</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03185835658595849</v>
+        <v>0.03474844387974816</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3455201583.15646</v>
+        <v>3281470535.456715</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1392678762734417</v>
+        <v>0.08812161089202149</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04068810174756723</v>
+        <v>0.04001591291791148</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1616068446.599851</v>
+        <v>2284202459.27202</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1091443333577441</v>
+        <v>0.1539033789874884</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03135008398845897</v>
+        <v>0.03925116919012051</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2110819328.176955</v>
+        <v>3253235554.517026</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1350907627570826</v>
+        <v>0.131375370277169</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04997540713832312</v>
+        <v>0.0526243825256317</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1708881041.409573</v>
+        <v>2127334983.969119</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1245789194293876</v>
+        <v>0.09343066270088166</v>
       </c>
       <c r="G96" t="n">
-        <v>0.038779090917192</v>
+        <v>0.04590957834622626</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4757095290.886631</v>
+        <v>5234834783.314481</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1409550382435724</v>
+        <v>0.1169762194032101</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02138910186507209</v>
+        <v>0.01910359887836666</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3699089524.543768</v>
+        <v>2683601158.182039</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1053320501133983</v>
+        <v>0.07994282147571298</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03001934791940607</v>
+        <v>0.02698673949660887</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3203770300.672113</v>
+        <v>2377590712.97474</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1131202682531166</v>
+        <v>0.1228955253149196</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02199981406758532</v>
+        <v>0.02828989232078095</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4765194577.877742</v>
+        <v>4524675621.949153</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1559875790724974</v>
+        <v>0.1148926725638434</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02117283510798878</v>
+        <v>0.02131781389866391</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3565707211.741813</v>
+        <v>2941704505.501747</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2064644498868729</v>
+        <v>0.2114319929097778</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0402451338438636</v>
+        <v>0.04865031763270939</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_96.xlsx
+++ b/output/fit_clients/fit_round_96.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1927591151.892506</v>
+        <v>2407405389.024161</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07138443166844009</v>
+        <v>0.103436652180644</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04281412444479447</v>
+        <v>0.03372207430404572</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1876757967.231266</v>
+        <v>2435227750.827566</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1516262818823426</v>
+        <v>0.1669194428017843</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04567862577289054</v>
+        <v>0.03643774423054</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5015618196.51462</v>
+        <v>3958700441.814161</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1336502230226878</v>
+        <v>0.1335133923370586</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03307786913175521</v>
+        <v>0.02715755758576911</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>60</v>
+      </c>
+      <c r="J4" t="n">
+        <v>96</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3096575969.295888</v>
+        <v>3406016885.566586</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08308153207736819</v>
+        <v>0.09623465498367623</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03203846138126128</v>
+        <v>0.03136278680313883</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>40</v>
+      </c>
+      <c r="J5" t="n">
+        <v>95</v>
+      </c>
+      <c r="K5" t="n">
+        <v>110.52225572478</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2208935334.530295</v>
+        <v>2866036808.988017</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1213464137935483</v>
+        <v>0.09398372217682932</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05343184976293891</v>
+        <v>0.05559903354407188</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2510257943.542904</v>
+        <v>2354525244.529005</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09284202512423444</v>
+        <v>0.07518360255499539</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04749421422182985</v>
+        <v>0.04897538261370808</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3021230769.411296</v>
+        <v>3781071658.523851</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1603519357184002</v>
+        <v>0.1404568114449672</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02382594711896541</v>
+        <v>0.02660589973797196</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>26</v>
+      </c>
+      <c r="J8" t="n">
+        <v>94</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2030795629.800604</v>
+        <v>1750280067.935954</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1747021291255689</v>
+        <v>0.1532565949816014</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02942033076946196</v>
+        <v>0.0270732262409202</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5654774414.588772</v>
+        <v>5884440138.691859</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1843864711720707</v>
+        <v>0.2003053204225861</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04920025981128855</v>
+        <v>0.03673468543828659</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>90</v>
+      </c>
+      <c r="J10" t="n">
+        <v>96</v>
+      </c>
+      <c r="K10" t="n">
+        <v>184.1992096271507</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3267453107.995995</v>
+        <v>4111056150.96503</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1562642565379777</v>
+        <v>0.1442186684374111</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0461761607695091</v>
+        <v>0.03351852379778893</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>39</v>
+      </c>
+      <c r="J11" t="n">
+        <v>96</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2609049462.120966</v>
+        <v>2617121664.72777</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1868312872586036</v>
+        <v>0.1386200666564421</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05144918083389426</v>
+        <v>0.04685531593299906</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4641173668.496677</v>
+        <v>4271840082.222978</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07343307005886703</v>
+        <v>0.07978328018833028</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02397725357060046</v>
+        <v>0.02028073628952687</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>48</v>
+      </c>
+      <c r="J13" t="n">
+        <v>96</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2762384749.509008</v>
+        <v>2779321918.851639</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1512979313920024</v>
+        <v>0.1498807492711903</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03483917487987614</v>
+        <v>0.04372423430744016</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>18</v>
+      </c>
+      <c r="J14" t="n">
+        <v>92</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +960,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1224194468.602226</v>
+        <v>1417450707.199517</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09340216342353123</v>
+        <v>0.1027780149085809</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04381992224647556</v>
+        <v>0.03803540029486705</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +995,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2686251038.901777</v>
+        <v>1849096382.518974</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07272861625305009</v>
+        <v>0.1021741977737138</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04028900257110894</v>
+        <v>0.05189255572910387</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3995667879.182867</v>
+        <v>5023642749.23723</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1648302757234328</v>
+        <v>0.1754947576802026</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04651199168276153</v>
+        <v>0.04851354353859676</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>46</v>
+      </c>
+      <c r="J17" t="n">
+        <v>96</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,16 +1065,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2930104815.393851</v>
+        <v>3455349335.935146</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1624543415424489</v>
+        <v>0.1347867516909654</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02711000229533181</v>
+        <v>0.02613637767143527</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>26</v>
+      </c>
+      <c r="J18" t="n">
+        <v>95</v>
+      </c>
+      <c r="K18" t="n">
+        <v>98.01029301940952</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>990209840.7723832</v>
+        <v>1108361889.142395</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1742427351762011</v>
+        <v>0.1170426426741012</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01872077259196939</v>
+        <v>0.01741762832153882</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2424594701.719015</v>
+        <v>2720774185.99896</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1350827487706255</v>
+        <v>0.1518990278765667</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02591967442932318</v>
+        <v>0.02658873988904568</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1863678368.5223</v>
+        <v>1878101641.495922</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1022617531332203</v>
+        <v>0.07007268201216164</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03184064556592979</v>
+        <v>0.03943991005284131</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1207,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3655706954.891215</v>
+        <v>3024886050.695668</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1272665078467352</v>
+        <v>0.1438219808442537</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0387232799895167</v>
+        <v>0.04947506975835918</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>24</v>
+      </c>
+      <c r="J22" t="n">
+        <v>95</v>
+      </c>
+      <c r="K22" t="n">
+        <v>71.83725658973404</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1134450931.958875</v>
+        <v>1080717685.73949</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1857673509203535</v>
+        <v>0.1862873224287369</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03580024123935222</v>
+        <v>0.05357862312457411</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3556127889.294889</v>
+        <v>3545921719.705384</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09497245113324784</v>
+        <v>0.1213464078259337</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02753421630670521</v>
+        <v>0.03607834119470919</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>28</v>
+      </c>
+      <c r="J24" t="n">
+        <v>90</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1282056793.675869</v>
+        <v>906178801.6860534</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1057941138948916</v>
+        <v>0.08147499697614886</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01991141364187696</v>
+        <v>0.03046367637345084</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1208761663.014628</v>
+        <v>1013598260.310202</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08879267791354636</v>
+        <v>0.1076709543761343</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03807161935250995</v>
+        <v>0.03617415037870546</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1384,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3999605127.56191</v>
+        <v>4293619308.493435</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1505854027566846</v>
+        <v>0.09744494375974269</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01962339510197523</v>
+        <v>0.01899825273395757</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>37</v>
+      </c>
+      <c r="J27" t="n">
+        <v>96</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,16 +1419,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3273134788.94433</v>
+        <v>3800114458.196734</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1291905785466298</v>
+        <v>0.09422453570122181</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03886733513342534</v>
+        <v>0.03955329115510423</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>23</v>
+      </c>
+      <c r="J28" t="n">
+        <v>95</v>
+      </c>
+      <c r="K28" t="n">
+        <v>125.8418637956339</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4297123143.38571</v>
+        <v>4558692431.518807</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1191298615799396</v>
+        <v>0.1426011562771064</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02877181948512684</v>
+        <v>0.03777978504860846</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>90</v>
+      </c>
+      <c r="J29" t="n">
+        <v>96</v>
+      </c>
+      <c r="K29" t="n">
+        <v>195.5280157212814</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2101981392.354641</v>
+        <v>2035411276.347183</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09711192763668031</v>
+        <v>0.1183783475697507</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02774980746583041</v>
+        <v>0.03835232613192464</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1058591182.182718</v>
+        <v>946587990.9871894</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06907250307236096</v>
+        <v>0.08722287943382981</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04771795192763324</v>
+        <v>0.04854298502800029</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1213039068.070081</v>
+        <v>1606672756.860811</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09839784266074054</v>
+        <v>0.1168483491684254</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02556480589133161</v>
+        <v>0.02818096502811315</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2134989485.505761</v>
+        <v>2961189053.878288</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1289577128785033</v>
+        <v>0.1649935182385054</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05202483105055232</v>
+        <v>0.03886239724447665</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1476311322.039423</v>
+        <v>1171477899.429054</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08189274498187908</v>
+        <v>0.08488761113208508</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02426501116603459</v>
+        <v>0.02383916517925848</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1075292886.079651</v>
+        <v>911286607.0397207</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07517490635852896</v>
+        <v>0.09811816042479488</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03820667691536831</v>
+        <v>0.03964724300270306</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2013446005.182292</v>
+        <v>2656859974.719721</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1510166469887562</v>
+        <v>0.13673803699836</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02056598355013643</v>
+        <v>0.02236295967732825</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2230734630.16012</v>
+        <v>2563537509.803774</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06949084237635562</v>
+        <v>0.09863795356014247</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03598713223382361</v>
+        <v>0.03779699961673685</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1372645619.653373</v>
+        <v>1584582938.996966</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09510915367559067</v>
+        <v>0.1161295698039435</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02772044648878845</v>
+        <v>0.0349602331696141</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1573236523.253922</v>
+        <v>1828659387.447568</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1748492303379831</v>
+        <v>0.1904986933203698</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02409166587382134</v>
+        <v>0.02070298987980505</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1472261889.894761</v>
+        <v>1521935771.149621</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1512055522327122</v>
+        <v>0.1156090318242741</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04379913531120539</v>
+        <v>0.04926008643047421</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2101192546.304189</v>
+        <v>2413601628.772496</v>
       </c>
       <c r="F41" t="n">
-        <v>0.123511382609949</v>
+        <v>0.1392923389401683</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03785396637121019</v>
+        <v>0.03413120318676559</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3955733547.353693</v>
+        <v>3817489424.930115</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1162714763348741</v>
+        <v>0.1190201429920687</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02934591403728553</v>
+        <v>0.03184266296669895</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>36</v>
+      </c>
+      <c r="J42" t="n">
+        <v>96</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3031675679.235347</v>
+        <v>2180196660.152525</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1636618859769913</v>
+        <v>0.1382715163966916</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01998337012998572</v>
+        <v>0.01938462240487177</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1932082720.10497</v>
+        <v>2192393977.046795</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06591053326211428</v>
+        <v>0.09738579823720625</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0232650123512343</v>
+        <v>0.0338624560209663</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2524064459.964147</v>
+        <v>2299264285.802554</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1802973049873534</v>
+        <v>0.1175891840127363</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03508091027703802</v>
+        <v>0.04709775828995282</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3992582704.106526</v>
+        <v>4388123784.954581</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1678084008089755</v>
+        <v>0.1147728529700898</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05049513261762122</v>
+        <v>0.05365401103935032</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>55</v>
+      </c>
+      <c r="J46" t="n">
+        <v>96</v>
+      </c>
+      <c r="K46" t="n">
+        <v>167.3081618242735</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4046732356.613318</v>
+        <v>4906578136.377546</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1780907370744021</v>
+        <v>0.1698416362010261</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03749426912107984</v>
+        <v>0.05087087441023244</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>42</v>
+      </c>
+      <c r="J47" t="n">
+        <v>96</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2125,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3146748235.188259</v>
+        <v>3280328933.282359</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08602313843240898</v>
+        <v>0.06953885152033484</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03200515836960934</v>
+        <v>0.03263335853846058</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>36</v>
+      </c>
+      <c r="J48" t="n">
+        <v>94</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1636390597.253203</v>
+        <v>1862544572.143712</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1349424297159196</v>
+        <v>0.1431441320200209</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03997714055520388</v>
+        <v>0.04098930485680837</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3109665792.724521</v>
+        <v>4090628804.595719</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1540242606064165</v>
+        <v>0.1131656389147495</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04293574413790779</v>
+        <v>0.03720391001260966</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>33</v>
+      </c>
+      <c r="J50" t="n">
+        <v>96</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1060782787.721203</v>
+        <v>1035167166.064585</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1901003742118977</v>
+        <v>0.1285188679793641</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03830887294487406</v>
+        <v>0.03989889272443697</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2265,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3829050982.676727</v>
+        <v>4613412312.710482</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1116555865103405</v>
+        <v>0.102754627972745</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06134800702603187</v>
+        <v>0.04409863642397663</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>74</v>
+      </c>
+      <c r="J52" t="n">
+        <v>96</v>
+      </c>
+      <c r="K52" t="n">
+        <v>175.2262418174968</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3260481865.599161</v>
+        <v>2489869001.944663</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1794756201631069</v>
+        <v>0.1242239045858239</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03346299923994448</v>
+        <v>0.02533589157273288</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>90</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4567634947.700305</v>
+        <v>4792271094.965984</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1033179840804354</v>
+        <v>0.104766275187482</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0423257521256353</v>
+        <v>0.03812409967376619</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>43</v>
+      </c>
+      <c r="J54" t="n">
+        <v>96</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3002914377.61272</v>
+        <v>3714941305.466831</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1557889608715189</v>
+        <v>0.190460613142819</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02336150855891454</v>
+        <v>0.02945712180352801</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>44</v>
+      </c>
+      <c r="J55" t="n">
+        <v>95</v>
+      </c>
+      <c r="K55" t="n">
+        <v>107.1254648431506</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2409,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1819315064.824373</v>
+        <v>1368458275.751934</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1451975202616104</v>
+        <v>0.1165232988298137</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0491990895624295</v>
+        <v>0.05305178859665925</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3483312938.027881</v>
+        <v>4109961848.136692</v>
       </c>
       <c r="F57" t="n">
-        <v>0.152585633782005</v>
+        <v>0.164704260860896</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0184985886743323</v>
+        <v>0.0199699097577734</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>36</v>
+      </c>
+      <c r="J57" t="n">
+        <v>96</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2479,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1219817194.561337</v>
+        <v>1344189902.966957</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1779398300596772</v>
+        <v>0.1709024981886091</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0318064135729531</v>
+        <v>0.03129065539269824</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3476950952.704811</v>
+        <v>5109938902.45923</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1003004935475038</v>
+        <v>0.1146738708343237</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0417504111210606</v>
+        <v>0.04654758101015373</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>47</v>
+      </c>
+      <c r="J59" t="n">
+        <v>95</v>
+      </c>
+      <c r="K59" t="n">
+        <v>152.5223270517793</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3181706694.474176</v>
+        <v>2539128367.146967</v>
       </c>
       <c r="F60" t="n">
-        <v>0.126439178638864</v>
+        <v>0.1802389113443493</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03002026904321368</v>
+        <v>0.02982730401981397</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>13</v>
+      </c>
+      <c r="J60" t="n">
+        <v>92</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2981202059.725483</v>
+        <v>3316698711.144142</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1508643686283402</v>
+        <v>0.130929871609042</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02374928949542485</v>
+        <v>0.02745981579029062</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1816389769.570147</v>
+        <v>1609966648.9996</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1731171247793346</v>
+        <v>0.1395889111557654</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03447151182870141</v>
+        <v>0.03313792565575942</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4887153559.270959</v>
+        <v>5207911000.584965</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1034816913503809</v>
+        <v>0.07366828263913612</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04188216141420411</v>
+        <v>0.03350363635385862</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>47</v>
+      </c>
+      <c r="J63" t="n">
+        <v>96</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4544533808.55327</v>
+        <v>4218592557.355946</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1872926057607583</v>
+        <v>0.1237912243516737</v>
       </c>
       <c r="G64" t="n">
-        <v>0.029971859265949</v>
+        <v>0.03093560681896934</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>47</v>
+      </c>
+      <c r="J64" t="n">
+        <v>96</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2726,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5313318857.061946</v>
+        <v>4803606536.780063</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1190818882118333</v>
+        <v>0.1182702424591606</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02655595815982697</v>
+        <v>0.02672964580643137</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>77</v>
+      </c>
+      <c r="J65" t="n">
+        <v>96</v>
+      </c>
+      <c r="K65" t="n">
+        <v>170.6887329519197</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2763,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4669064344.755369</v>
+        <v>3738921881.968419</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1494103967942813</v>
+        <v>0.1469384055685936</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04489648208112797</v>
+        <v>0.04080369150196405</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>47</v>
+      </c>
+      <c r="J66" t="n">
+        <v>94</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2792,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2904840131.631886</v>
+        <v>2449035686.439746</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07218775212314901</v>
+        <v>0.08924916651129793</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04567828000326467</v>
+        <v>0.03408765183171903</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2827,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4086387056.143058</v>
+        <v>5979179585.459706</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1539413589569317</v>
+        <v>0.1138776956175476</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0364294100358977</v>
+        <v>0.03548131489929453</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>48</v>
+      </c>
+      <c r="J68" t="n">
+        <v>95</v>
+      </c>
+      <c r="K68" t="n">
+        <v>157.524047196406</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2431969689.148753</v>
+        <v>2315494889.317537</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1526198546802101</v>
+        <v>0.1155097474087245</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04211079458903754</v>
+        <v>0.03930380196444055</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2899,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3413139707.560425</v>
+        <v>3101948327.846624</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07621796743899734</v>
+        <v>0.1004504680640011</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03272721942687819</v>
+        <v>0.04577801599547931</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>12</v>
+      </c>
+      <c r="J70" t="n">
+        <v>95</v>
+      </c>
+      <c r="K70" t="n">
+        <v>77.06605317322467</v>
       </c>
     </row>
     <row r="71">
@@ -2412,23 +2936,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4799411756.248652</v>
+        <v>3915443015.313917</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1820101810648944</v>
+        <v>0.1201402926717437</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02592556190698691</v>
+        <v>0.03274680634478498</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>78</v>
+      </c>
+      <c r="J71" t="n">
+        <v>96</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1466093215.760275</v>
+        <v>1928522085.649172</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1015604095520006</v>
+        <v>0.08901640658568837</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04771810748517695</v>
+        <v>0.04972750393164804</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3360924554.375633</v>
+        <v>3463452178.69755</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09649057743700938</v>
+        <v>0.09875631265674779</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03613235642426973</v>
+        <v>0.03534221195563168</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3041,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3478359214.192907</v>
+        <v>2550434021.535439</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1816287135374217</v>
+        <v>0.1440943226288182</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02473691581344897</v>
+        <v>0.03418725973381494</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>31</v>
+      </c>
+      <c r="J74" t="n">
+        <v>95</v>
+      </c>
+      <c r="K74" t="n">
+        <v>56.11177307802355</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3084,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2295903382.25002</v>
+        <v>2207946795.411277</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1166567051859142</v>
+        <v>0.1673333737885002</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02691231128341194</v>
+        <v>0.0284091343506943</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4881363892.044548</v>
+        <v>3427579388.551869</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09273364062520291</v>
+        <v>0.08115171987896976</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03191670510755576</v>
+        <v>0.02397868988747745</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>44</v>
+      </c>
+      <c r="J76" t="n">
+        <v>94</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3154,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1950233572.444791</v>
+        <v>2242437380.304264</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1484920328558345</v>
+        <v>0.1530346360791526</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0311727964088507</v>
+        <v>0.0191151473511705</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3183,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4092151631.106519</v>
+        <v>4410882930.717454</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09391107101135791</v>
+        <v>0.1275086901521998</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04162912006350761</v>
+        <v>0.05646685991104</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>48</v>
+      </c>
+      <c r="J78" t="n">
+        <v>96</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1491327834.362491</v>
+        <v>1553788100.339608</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1075390757152005</v>
+        <v>0.1171759272040486</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03497524117751848</v>
+        <v>0.0247632336492713</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3253,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5581321020.667466</v>
+        <v>4465021771.896081</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1110644783951965</v>
+        <v>0.07180491116664316</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02494195195635215</v>
+        <v>0.02828841253629595</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>46</v>
+      </c>
+      <c r="J80" t="n">
+        <v>95</v>
+      </c>
+      <c r="K80" t="n">
+        <v>125.9919695563974</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4493263196.95927</v>
+        <v>4913703920.215527</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08698584353273937</v>
+        <v>0.1031994023844813</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02152677981722302</v>
+        <v>0.02797634771973415</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>44</v>
+      </c>
+      <c r="J81" t="n">
+        <v>95</v>
+      </c>
+      <c r="K81" t="n">
+        <v>139.4303586086506</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3333,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3947690777.86855</v>
+        <v>3731521980.003556</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2134659307750121</v>
+        <v>0.1487162519712058</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02216410958204895</v>
+        <v>0.0193378632352596</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>62</v>
+      </c>
+      <c r="J82" t="n">
+        <v>95</v>
+      </c>
+      <c r="K82" t="n">
+        <v>126.3049645248904</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2018337212.760308</v>
+        <v>1831961507.889245</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1514023493004873</v>
+        <v>0.1167337135774458</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02873563158936492</v>
+        <v>0.03248081988639107</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2366089370.683004</v>
+        <v>2354233098.344886</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09407667913377406</v>
+        <v>0.08000057518181193</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04274527452563757</v>
+        <v>0.04736234552712819</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2748467807.882572</v>
+        <v>3303782270.462032</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1281895691083584</v>
+        <v>0.1739776970133322</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04274508299026226</v>
+        <v>0.03740249828197278</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>16</v>
+      </c>
+      <c r="J85" t="n">
+        <v>95</v>
+      </c>
+      <c r="K85" t="n">
+        <v>101.3876332034496</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2094674108.223531</v>
+        <v>2793355497.801195</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1332376643934073</v>
+        <v>0.1276982850278228</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02365907795512191</v>
+        <v>0.01857754254218636</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1500169816.776975</v>
+        <v>1126673254.721752</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1429071499646055</v>
+        <v>0.1907275841874352</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03195388306506435</v>
+        <v>0.03257998430425327</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2361924261.483837</v>
+        <v>3347984288.585015</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1121695597894672</v>
+        <v>0.1499902857935907</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03677929701988873</v>
+        <v>0.03954580805115114</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>14</v>
+      </c>
+      <c r="J88" t="n">
+        <v>94</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2133679962.445297</v>
+        <v>3000375249.922545</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1522387645023711</v>
+        <v>0.1579734725811191</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02968567383619526</v>
+        <v>0.02763276931570328</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>79</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1723973746.836035</v>
+        <v>2006684164.979923</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1113299935087535</v>
+        <v>0.114089587483268</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03956005122764152</v>
+        <v>0.03940051398701037</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1545874328.649153</v>
+        <v>2053870697.726353</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1701095895260407</v>
+        <v>0.1303036448519311</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05322047748874083</v>
+        <v>0.05943010633314263</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2360655375.734796</v>
+        <v>2734900293.640863</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1096403311453632</v>
+        <v>0.1004507157245643</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03474844387974816</v>
+        <v>0.0327552973019273</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3281470535.456715</v>
+        <v>4361994669.500179</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08812161089202149</v>
+        <v>0.1139459532588159</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04001591291791148</v>
+        <v>0.0420625669602743</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>43</v>
+      </c>
+      <c r="J93" t="n">
+        <v>96</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2284202459.27202</v>
+        <v>1533610270.661227</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1539033789874884</v>
+        <v>0.1245443707776075</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03925116919012051</v>
+        <v>0.04024697253581745</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3253235554.517026</v>
+        <v>2553066296.7488</v>
       </c>
       <c r="F95" t="n">
-        <v>0.131375370277169</v>
+        <v>0.1309910411021984</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0526243825256317</v>
+        <v>0.04164912589019096</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2127334983.969119</v>
+        <v>1898957402.359865</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09343066270088166</v>
+        <v>0.1019707790767589</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04590957834622626</v>
+        <v>0.04002414662077443</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5234834783.314481</v>
+        <v>4952563542.765106</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1169762194032101</v>
+        <v>0.1702779613065607</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01910359887836666</v>
+        <v>0.02201943752367387</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>46</v>
+      </c>
+      <c r="J97" t="n">
+        <v>95</v>
+      </c>
+      <c r="K97" t="n">
+        <v>163.402228088837</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2683601158.182039</v>
+        <v>2773984264.586615</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07994282147571298</v>
+        <v>0.1098218291212045</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02698673949660887</v>
+        <v>0.02404257550175014</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>21</v>
+      </c>
+      <c r="J98" t="n">
+        <v>93</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2377590712.97474</v>
+        <v>3163917555.952363</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1228955253149196</v>
+        <v>0.130398137074028</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02828989232078095</v>
+        <v>0.02639057043261459</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4524675621.949153</v>
+        <v>4390232968.664756</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1148926725638434</v>
+        <v>0.1106156399144716</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02131781389866391</v>
+        <v>0.02031933723227531</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>39</v>
+      </c>
+      <c r="J100" t="n">
+        <v>95</v>
+      </c>
+      <c r="K100" t="n">
+        <v>153.4208802253376</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2941704505.501747</v>
+        <v>2531826042.859996</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2114319929097778</v>
+        <v>0.1927384589536542</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04865031763270939</v>
+        <v>0.03617132705079303</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>5</v>
+      </c>
+      <c r="J101" t="n">
+        <v>90</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
